--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="ItemConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -49,10 +49,16 @@
     <t>Coin</t>
   </si>
   <si>
-    <t>碎片</t>
-  </si>
-  <si>
-    <t>asd</t>
+    <t>科技点</t>
+  </si>
+  <si>
+    <t>TechPoint</t>
+  </si>
+  <si>
+    <t>建材</t>
+  </si>
+  <si>
+    <t>BuildMat</t>
   </si>
 </sst>
 </file>
@@ -1023,13 +1029,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F7"/>
+  <dimension ref="C3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <sheetData>
     <row r="3" spans="3:6">
       <c r="C3" s="1" t="s">
@@ -1098,7 +1104,21 @@
         <v>12</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
